--- a/data/trans_orig/P25D_R_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7867</v>
+        <v>8413</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005013780813552925</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001547076499445298</v>
+        <v>0.001539590801953621</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01359793736148338</v>
+        <v>0.01454214577438582</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>898</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8546</v>
+        <v>9794</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002074113749958917</v>
+        <v>0.002074113749958916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006418717079401573</v>
+        <v>0.0006418542421988424</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006110936035822671</v>
+        <v>0.007003639544242295</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>575628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>570662</v>
+        <v>570116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>577634</v>
+        <v>577638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.994986219186447</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9864020626385165</v>
+        <v>0.9854578542256146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984529235005547</v>
+        <v>0.9984604091980464</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1424</v>
@@ -838,19 +838,19 @@
         <v>1395585</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1389940</v>
+        <v>1388692</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>1397588</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9979258862500412</v>
+        <v>0.997925886250041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9938890639641771</v>
+        <v>0.9929963604557577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9993581282920597</v>
+        <v>0.9993581457578012</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>28257</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16776</v>
+        <v>16765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45421</v>
+        <v>44625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01271113905704592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007546728772068473</v>
+        <v>0.007541571076084548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02043242936891714</v>
+        <v>0.02007461744592238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -963,19 +963,19 @@
         <v>17690</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9929</v>
+        <v>10206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28574</v>
+        <v>26971</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.00816333017693141</v>
+        <v>0.008163330176931409</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004581804079125338</v>
+        <v>0.004709736338414866</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01318579412136283</v>
+        <v>0.01244630479205247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -984,19 +984,19 @@
         <v>45947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31775</v>
+        <v>30937</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66748</v>
+        <v>64782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01046622909730396</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007238150680012949</v>
+        <v>0.007047267385689345</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01520458791091976</v>
+        <v>0.01475670393483365</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>2194720</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2177556</v>
+        <v>2178352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2206201</v>
+        <v>2206212</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9872888609429541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9795675706310831</v>
+        <v>0.9799253825540779</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9924532712279317</v>
+        <v>0.9924584289239157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2896</v>
@@ -1034,19 +1034,19 @@
         <v>2149310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2138426</v>
+        <v>2140029</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2157071</v>
+        <v>2156794</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9918366698230685</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9868142058786377</v>
+        <v>0.9875536952079473</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9954181959208752</v>
+        <v>0.995290263661585</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4863</v>
@@ -1055,19 +1055,19 @@
         <v>4344030</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4323229</v>
+        <v>4325195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4358202</v>
+        <v>4359040</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9895337709026959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9847954120890799</v>
+        <v>0.985243296065165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9927618493199868</v>
+        <v>0.9929527326143104</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>11449</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5317</v>
+        <v>5866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20546</v>
+        <v>22402</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01613535843827639</v>
+        <v>0.01613535843827638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007493506705274341</v>
+        <v>0.008266527515951055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02895675003429661</v>
+        <v>0.03157144897794215</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1180,19 +1180,19 @@
         <v>8254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4457</v>
+        <v>4016</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14335</v>
+        <v>15030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01124208215393584</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006071130422856849</v>
+        <v>0.005470590528549472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01952550546376733</v>
+        <v>0.02047159902701373</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1201,19 +1201,19 @@
         <v>19703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11728</v>
+        <v>12435</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31264</v>
+        <v>29810</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01364700930928066</v>
+        <v>0.01364700930928067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008123257791558966</v>
+        <v>0.008613246399626259</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02165490650633716</v>
+        <v>0.02064780220665797</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>698106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>689009</v>
+        <v>687153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704238</v>
+        <v>703689</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9838646415617236</v>
+        <v>0.9838646415617235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9710432499657023</v>
+        <v>0.9684285510220577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9925064932947255</v>
+        <v>0.9917334724840489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>991</v>
@@ -1251,19 +1251,19 @@
         <v>725914</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>719833</v>
+        <v>719138</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>729711</v>
+        <v>730152</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.988757917846064</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9804744945362327</v>
+        <v>0.9795284009729862</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939288695771432</v>
+        <v>0.9945294094714504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1661</v>
@@ -1272,19 +1272,19 @@
         <v>1424021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1412460</v>
+        <v>1413914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1431996</v>
+        <v>1431289</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9863529906907192</v>
+        <v>0.9863529906907194</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9783450934936628</v>
+        <v>0.9793521977933417</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.991876742208441</v>
+        <v>0.9913867536003736</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>42606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27589</v>
+        <v>30227</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62791</v>
+        <v>62691</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01213482465153472</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007857848615675067</v>
+        <v>0.008608988504661585</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01788365775284538</v>
+        <v>0.01785542298494706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1397,19 +1397,19 @@
         <v>25944</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17581</v>
+        <v>17592</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37624</v>
+        <v>39852</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.006971954904388969</v>
+        <v>0.00697195490438897</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004724646052792517</v>
+        <v>0.004727575334174056</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01011094857355473</v>
+        <v>0.01070970553284421</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -1418,19 +1418,19 @@
         <v>68550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51613</v>
+        <v>51792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90785</v>
+        <v>88521</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.009478410154621517</v>
+        <v>0.00947841015462152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00713653609525545</v>
+        <v>0.007161276972368323</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01255293467923841</v>
+        <v>0.01223984703190406</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>3468455</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3448270</v>
+        <v>3448370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3483472</v>
+        <v>3480834</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9878651753484654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9821163422471547</v>
+        <v>0.9821445770150526</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.992142151384325</v>
+        <v>0.9913910114953384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5311</v>
@@ -1468,19 +1468,19 @@
         <v>3695181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3683501</v>
+        <v>3681273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3703544</v>
+        <v>3703533</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9930280450956112</v>
+        <v>0.9930280450956113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9898890514264453</v>
+        <v>0.9892902944671558</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9952753539472077</v>
+        <v>0.995272424665826</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8636</v>
@@ -1489,19 +1489,19 @@
         <v>7163637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7141402</v>
+        <v>7143666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7180574</v>
+        <v>7180395</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9905215898453784</v>
+        <v>0.9905215898453785</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9874470653207607</v>
+        <v>0.9877601529680959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9928634639047444</v>
+        <v>0.9928387230276315</v>
       </c>
     </row>
     <row r="15">
